--- a/media/financial_output/mayb/output_maybank_statement4.xlsx
+++ b/media/financial_output/mayb/output_maybank_statement4.xlsx
@@ -116,7 +116,7 @@
 _x000C_</t>
   </si>
   <si>
-    <t>MUHAMMAD AZ7UBAIB BIN AZEMAN
+    <t>MUHAMMAD AZZUBAIR BIN AZEMAN
 _x000C_</t>
   </si>
   <si>
